--- a/data/pca/factorExposure/factorExposure_2018-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01920411202902446</v>
+        <v>-0.02241880515456758</v>
       </c>
       <c r="C2">
-        <v>-0.02453110107478924</v>
+        <v>0.01718381213576755</v>
       </c>
       <c r="D2">
-        <v>-0.01427643431500115</v>
+        <v>0.02417570209624565</v>
       </c>
       <c r="E2">
-        <v>0.02972103237690856</v>
+        <v>-0.0137035990801614</v>
       </c>
       <c r="F2">
-        <v>0.1121572265679097</v>
+        <v>0.01129237292203499</v>
       </c>
       <c r="G2">
-        <v>0.06478754858065697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05059589757500609</v>
+      </c>
+      <c r="H2">
+        <v>0.04618801395915006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0961944121272866</v>
+        <v>-0.08896508050869031</v>
       </c>
       <c r="C3">
-        <v>0.004973643878532516</v>
+        <v>-0.01654901236508952</v>
       </c>
       <c r="D3">
-        <v>-0.0927206600432907</v>
+        <v>0.04512440853661613</v>
       </c>
       <c r="E3">
-        <v>0.08132095744125931</v>
+        <v>-0.003767826471837192</v>
       </c>
       <c r="F3">
-        <v>0.3759417684663176</v>
+        <v>0.008235420396791518</v>
       </c>
       <c r="G3">
-        <v>0.1855563209449591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1891425161433632</v>
+      </c>
+      <c r="H3">
+        <v>0.1626018281273996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03861627831863491</v>
+        <v>-0.0497039336532042</v>
       </c>
       <c r="C4">
-        <v>-0.00692133379916799</v>
+        <v>0.001841831785408084</v>
       </c>
       <c r="D4">
-        <v>0.01682561357188342</v>
+        <v>0.05074589738546705</v>
       </c>
       <c r="E4">
-        <v>-0.03919980168030406</v>
+        <v>0.02159128566119571</v>
       </c>
       <c r="F4">
-        <v>0.08240105185397176</v>
+        <v>0.05471294336129009</v>
       </c>
       <c r="G4">
-        <v>0.04775142832236785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03261641822139481</v>
+      </c>
+      <c r="H4">
+        <v>0.05269988571182575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02341131841780878</v>
+        <v>-0.03042557374187548</v>
       </c>
       <c r="C6">
-        <v>-0.009100625287735434</v>
+        <v>-0.000212208113699688</v>
       </c>
       <c r="D6">
-        <v>-0.005960956242477324</v>
+        <v>0.05566242497084099</v>
       </c>
       <c r="E6">
-        <v>-0.02090610206082565</v>
+        <v>0.005475239525353896</v>
       </c>
       <c r="F6">
-        <v>0.02593590863203458</v>
+        <v>0.03237802812836536</v>
       </c>
       <c r="G6">
-        <v>-0.006066080797929752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01007847721649691</v>
+      </c>
+      <c r="H6">
+        <v>0.06105491605649991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01961411968514267</v>
+        <v>-0.02395950832472666</v>
       </c>
       <c r="C7">
-        <v>-0.006363109329342907</v>
+        <v>0.0008424507738883874</v>
       </c>
       <c r="D7">
-        <v>-0.01614689740459972</v>
+        <v>0.0298282807245004</v>
       </c>
       <c r="E7">
-        <v>-0.02194277894376585</v>
+        <v>0.04354084856124937</v>
       </c>
       <c r="F7">
-        <v>0.0509543808684487</v>
+        <v>0.007507974812921634</v>
       </c>
       <c r="G7">
-        <v>0.06284741608728757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02194257233362198</v>
+      </c>
+      <c r="H7">
+        <v>0.0380205507038521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01851388732172345</v>
+        <v>-0.008106461861472852</v>
       </c>
       <c r="C8">
-        <v>-0.01190007854208553</v>
+        <v>-0.002803155290103085</v>
       </c>
       <c r="D8">
-        <v>-0.004507778476419447</v>
+        <v>0.01184942513579731</v>
       </c>
       <c r="E8">
-        <v>-0.02939064449258994</v>
+        <v>0.007771688469057568</v>
       </c>
       <c r="F8">
-        <v>0.1024968057789397</v>
+        <v>0.02358235509959207</v>
       </c>
       <c r="G8">
-        <v>0.04910528066818981</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04098266504686338</v>
+      </c>
+      <c r="H8">
+        <v>0.03888777726237009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03222111630224762</v>
+        <v>-0.03920485349173786</v>
       </c>
       <c r="C9">
-        <v>-0.009883269903740432</v>
+        <v>-0.001353490171432</v>
       </c>
       <c r="D9">
-        <v>0.004945521646680166</v>
+        <v>0.0383490598580148</v>
       </c>
       <c r="E9">
-        <v>-0.03327768205002656</v>
+        <v>0.01071026373634942</v>
       </c>
       <c r="F9">
-        <v>0.09000157639464071</v>
+        <v>0.03123694372723906</v>
       </c>
       <c r="G9">
-        <v>0.05789596556711751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04248602494733038</v>
+      </c>
+      <c r="H9">
+        <v>0.05131353338746079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03127661912121723</v>
+        <v>-0.09523692354699742</v>
       </c>
       <c r="C10">
-        <v>0.07311566430132466</v>
+        <v>-0.00999950126365773</v>
       </c>
       <c r="D10">
-        <v>0.06375668441218836</v>
+        <v>-0.1703855756410293</v>
       </c>
       <c r="E10">
-        <v>0.1273265672764809</v>
+        <v>-0.002621644394684085</v>
       </c>
       <c r="F10">
-        <v>0.03989770059490971</v>
+        <v>-0.03333605754678446</v>
       </c>
       <c r="G10">
-        <v>-0.004366653172425449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03524778620588385</v>
+      </c>
+      <c r="H10">
+        <v>0.008457258881914913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03258633649672184</v>
+        <v>-0.02536713834716913</v>
       </c>
       <c r="C11">
-        <v>-0.02414127824664652</v>
+        <v>-0.01193797490167008</v>
       </c>
       <c r="D11">
-        <v>-0.01400906685117485</v>
+        <v>0.04498889690970611</v>
       </c>
       <c r="E11">
-        <v>-0.02379516228611799</v>
+        <v>-0.0005457643966770761</v>
       </c>
       <c r="F11">
-        <v>0.04914757828163818</v>
+        <v>0.01542385051491053</v>
       </c>
       <c r="G11">
-        <v>0.02512554675270271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02554778793153821</v>
+      </c>
+      <c r="H11">
+        <v>0.04664471769357412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04060575915463774</v>
+        <v>-0.02999746623004664</v>
       </c>
       <c r="C12">
-        <v>-0.02418588746213463</v>
+        <v>-0.008711944734227378</v>
       </c>
       <c r="D12">
-        <v>-0.005090827546508873</v>
+        <v>0.04379620277226995</v>
       </c>
       <c r="E12">
-        <v>-0.03539863105704182</v>
+        <v>0.008746088112247929</v>
       </c>
       <c r="F12">
-        <v>0.03420506089485952</v>
+        <v>0.01815555604951079</v>
       </c>
       <c r="G12">
-        <v>0.009042662887581319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.006358226150407963</v>
+      </c>
+      <c r="H12">
+        <v>0.0204302383813603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01429318941771499</v>
+        <v>-0.03062392789860384</v>
       </c>
       <c r="C13">
-        <v>-0.02186832587513476</v>
+        <v>0.01219130203963958</v>
       </c>
       <c r="D13">
-        <v>0.001274764628291419</v>
+        <v>0.01442292518231674</v>
       </c>
       <c r="E13">
-        <v>0.01269055368542637</v>
+        <v>-0.009080518658826272</v>
       </c>
       <c r="F13">
-        <v>0.07720598250596088</v>
+        <v>0.02863156640316201</v>
       </c>
       <c r="G13">
-        <v>0.04364426284628754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06058742089814319</v>
+      </c>
+      <c r="H13">
+        <v>0.07173737086799539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01465495507094642</v>
+        <v>-0.0190776007074025</v>
       </c>
       <c r="C14">
-        <v>-0.001404519068265469</v>
+        <v>0.0001358467153526653</v>
       </c>
       <c r="D14">
-        <v>0.006565832209832666</v>
+        <v>0.008699016317425989</v>
       </c>
       <c r="E14">
-        <v>-0.02835170801532244</v>
+        <v>0.01512567356276579</v>
       </c>
       <c r="F14">
-        <v>0.06077689530283694</v>
+        <v>0.01938395775256771</v>
       </c>
       <c r="G14">
-        <v>0.05767146612492453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03918728099386044</v>
+      </c>
+      <c r="H14">
+        <v>0.009545273048697412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.025408608650179</v>
+        <v>-0.02566547840039575</v>
       </c>
       <c r="C16">
-        <v>-0.02735218232069727</v>
+        <v>-0.01150418802898026</v>
       </c>
       <c r="D16">
-        <v>-0.01073851032108465</v>
+        <v>0.03760195173760347</v>
       </c>
       <c r="E16">
-        <v>-0.01862994065268649</v>
+        <v>0.002856276132104765</v>
       </c>
       <c r="F16">
-        <v>0.05537123893752519</v>
+        <v>0.01987308862423869</v>
       </c>
       <c r="G16">
-        <v>0.02834197201585253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02076438253092635</v>
+      </c>
+      <c r="H16">
+        <v>0.03477318361455187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04499005454316456</v>
+        <v>-0.03804043857692407</v>
       </c>
       <c r="C19">
-        <v>-0.01803930307992905</v>
+        <v>-0.001895012406424838</v>
       </c>
       <c r="D19">
-        <v>-0.01413398761380017</v>
+        <v>0.02989831975958368</v>
       </c>
       <c r="E19">
-        <v>-0.02595440751765057</v>
+        <v>0.005923924871778581</v>
       </c>
       <c r="F19">
-        <v>0.1100741572239389</v>
+        <v>0.03184963538791782</v>
       </c>
       <c r="G19">
-        <v>0.04020308331091371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06016064027391972</v>
+      </c>
+      <c r="H19">
+        <v>0.06929857016870107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002404824820466773</v>
+        <v>-0.01393316284133639</v>
       </c>
       <c r="C20">
-        <v>-0.008144257627315311</v>
+        <v>0.004136038525399764</v>
       </c>
       <c r="D20">
-        <v>0.001564958167202889</v>
+        <v>0.01873423145020815</v>
       </c>
       <c r="E20">
-        <v>-0.02000417012016851</v>
+        <v>0.006538511308266787</v>
       </c>
       <c r="F20">
-        <v>0.07925249957394796</v>
+        <v>0.02332800094210985</v>
       </c>
       <c r="G20">
-        <v>0.07769166166516221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04998781620155263</v>
+      </c>
+      <c r="H20">
+        <v>0.02486533651106189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.006690064112441597</v>
+        <v>-0.017908987080662</v>
       </c>
       <c r="C21">
-        <v>0.016190570794165</v>
+        <v>0.006593333490556394</v>
       </c>
       <c r="D21">
-        <v>-0.02279593011307676</v>
+        <v>0.01698518466199925</v>
       </c>
       <c r="E21">
-        <v>-0.02721019131136981</v>
+        <v>0.02005196321814125</v>
       </c>
       <c r="F21">
-        <v>0.05157390501083424</v>
+        <v>0.0140770953800408</v>
       </c>
       <c r="G21">
-        <v>0.02079882823504122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04969091119549802</v>
+      </c>
+      <c r="H21">
+        <v>0.04611388425201719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02858807305036248</v>
+        <v>-0.0223150118921681</v>
       </c>
       <c r="C24">
-        <v>-0.02455962702253742</v>
+        <v>-0.005901547610312992</v>
       </c>
       <c r="D24">
-        <v>0.0001259574487387662</v>
+        <v>0.03933174554457606</v>
       </c>
       <c r="E24">
-        <v>-0.006979979381656479</v>
+        <v>0.001087873080002483</v>
       </c>
       <c r="F24">
-        <v>0.04584378816453642</v>
+        <v>0.01458944620664733</v>
       </c>
       <c r="G24">
-        <v>0.02519741874214141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01632877633420457</v>
+      </c>
+      <c r="H24">
+        <v>0.04430153640608921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02927612576712389</v>
+        <v>-0.03358655702521273</v>
       </c>
       <c r="C25">
-        <v>-0.01591436988647738</v>
+        <v>-0.003886816718102688</v>
       </c>
       <c r="D25">
-        <v>-0.0141113206975461</v>
+        <v>0.03872557695939471</v>
       </c>
       <c r="E25">
-        <v>-0.02505174639803841</v>
+        <v>0.004982909548014138</v>
       </c>
       <c r="F25">
-        <v>0.05499108428931723</v>
+        <v>0.02210087501834447</v>
       </c>
       <c r="G25">
-        <v>0.01319669601030166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02085974147553963</v>
+      </c>
+      <c r="H25">
+        <v>0.04304664226627704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02217422579199123</v>
+        <v>-0.01949070116988316</v>
       </c>
       <c r="C26">
-        <v>-0.01271109374296461</v>
+        <v>0.01755851935368241</v>
       </c>
       <c r="D26">
-        <v>-0.02876411368303487</v>
+        <v>0.00627910165970966</v>
       </c>
       <c r="E26">
-        <v>0.0009465684653278904</v>
+        <v>-0.0002096922741580046</v>
       </c>
       <c r="F26">
-        <v>0.06928105122703977</v>
+        <v>0.004903026134241418</v>
       </c>
       <c r="G26">
-        <v>0.04373333229146895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03269610638829495</v>
+      </c>
+      <c r="H26">
+        <v>0.0218742766529823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05998587297758846</v>
+        <v>-0.02395760025783442</v>
       </c>
       <c r="C27">
-        <v>-0.01908906600856166</v>
+        <v>-0.008934072919323927</v>
       </c>
       <c r="D27">
-        <v>0.02780043943029513</v>
+        <v>0.01346193678780818</v>
       </c>
       <c r="E27">
-        <v>-0.03504526334820347</v>
+        <v>0.00464802071112734</v>
       </c>
       <c r="F27">
-        <v>0.06050491545163069</v>
+        <v>0.01460270372027133</v>
       </c>
       <c r="G27">
-        <v>0.0417339949713476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01233286552329191</v>
+      </c>
+      <c r="H27">
+        <v>-0.001205511676192639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05066020654609712</v>
+        <v>-0.1390770507493058</v>
       </c>
       <c r="C28">
-        <v>0.09660713145241821</v>
+        <v>-0.002911578680587007</v>
       </c>
       <c r="D28">
-        <v>0.09681308097473422</v>
+        <v>-0.230850648146415</v>
       </c>
       <c r="E28">
-        <v>0.1547038328541996</v>
+        <v>0.003678077967848999</v>
       </c>
       <c r="F28">
-        <v>0.02826887526940112</v>
+        <v>-0.03127645975786832</v>
       </c>
       <c r="G28">
-        <v>0.005626455743581229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02304338977068564</v>
+      </c>
+      <c r="H28">
+        <v>-0.001616060560847761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01934837999886954</v>
+        <v>-0.02229595720173514</v>
       </c>
       <c r="C29">
-        <v>-0.001221337785783656</v>
+        <v>-0.001232657947474888</v>
       </c>
       <c r="D29">
-        <v>0.008399570791231319</v>
+        <v>0.008523437148832191</v>
       </c>
       <c r="E29">
-        <v>-0.03745541456119243</v>
+        <v>0.01559935857217506</v>
       </c>
       <c r="F29">
-        <v>0.05738250980840301</v>
+        <v>0.02027527499174619</v>
       </c>
       <c r="G29">
-        <v>0.04726110352243735</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03672919921478664</v>
+      </c>
+      <c r="H29">
+        <v>0.001240771433408188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08532728980971677</v>
+        <v>-0.06039441670352232</v>
       </c>
       <c r="C30">
-        <v>-0.06070029029863808</v>
+        <v>-0.001867553135716123</v>
       </c>
       <c r="D30">
-        <v>0.001573050899616426</v>
+        <v>0.08579570069476514</v>
       </c>
       <c r="E30">
-        <v>-0.04829896032336566</v>
+        <v>-0.03001686462960395</v>
       </c>
       <c r="F30">
-        <v>0.1120426564078993</v>
+        <v>0.05909378554575093</v>
       </c>
       <c r="G30">
-        <v>0.05447962740236826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05353289682305397</v>
+      </c>
+      <c r="H30">
+        <v>0.0714182878227216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05671018557820482</v>
+        <v>-0.05291665511566108</v>
       </c>
       <c r="C31">
-        <v>-0.02886482103238684</v>
+        <v>-0.01279662675468734</v>
       </c>
       <c r="D31">
-        <v>-0.01311004904707926</v>
+        <v>0.01805657827253022</v>
       </c>
       <c r="E31">
-        <v>-0.005419068740438401</v>
+        <v>-0.003966667889979124</v>
       </c>
       <c r="F31">
-        <v>0.04238709403673765</v>
+        <v>0.00841269745681328</v>
       </c>
       <c r="G31">
-        <v>0.06080634445108648</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01294659484417019</v>
+      </c>
+      <c r="H31">
+        <v>0.004006542185508331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01508449190540706</v>
+        <v>-0.01108388178562162</v>
       </c>
       <c r="C32">
-        <v>-0.0116777532706857</v>
+        <v>-0.01328968577961737</v>
       </c>
       <c r="D32">
-        <v>-0.01531589542911392</v>
+        <v>0.007393194425329472</v>
       </c>
       <c r="E32">
-        <v>-0.06339122483224309</v>
+        <v>0.03100997914422943</v>
       </c>
       <c r="F32">
-        <v>0.08703206085309313</v>
+        <v>0.04195357981336277</v>
       </c>
       <c r="G32">
-        <v>0.04552875510999517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02487531130340107</v>
+      </c>
+      <c r="H32">
+        <v>0.05439562138670835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04598159221999429</v>
+        <v>-0.04178076871237983</v>
       </c>
       <c r="C33">
-        <v>-0.02663927537122427</v>
+        <v>-0.003239000176712207</v>
       </c>
       <c r="D33">
-        <v>-0.0419105618433001</v>
+        <v>0.03528877657757122</v>
       </c>
       <c r="E33">
-        <v>-0.02441425588948267</v>
+        <v>-0.02164288582192632</v>
       </c>
       <c r="F33">
-        <v>0.08709221238116141</v>
+        <v>0.008728511298505461</v>
       </c>
       <c r="G33">
-        <v>0.06165039422452875</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04450819775917576</v>
+      </c>
+      <c r="H33">
+        <v>0.04120072850124554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02836341626990235</v>
+        <v>-0.02845702375480304</v>
       </c>
       <c r="C34">
-        <v>-0.02651539581495237</v>
+        <v>-0.01911342441802405</v>
       </c>
       <c r="D34">
-        <v>-0.009050378550552952</v>
+        <v>0.03748939629714714</v>
       </c>
       <c r="E34">
-        <v>-0.02651044202290493</v>
+        <v>0.009630853438915047</v>
       </c>
       <c r="F34">
-        <v>0.05838845459718163</v>
+        <v>0.02028837778321302</v>
       </c>
       <c r="G34">
-        <v>0.01653301547035518</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01600981726519183</v>
+      </c>
+      <c r="H34">
+        <v>0.03632629229140177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01424619301006573</v>
+        <v>-0.02045428362385395</v>
       </c>
       <c r="C36">
-        <v>2.867352099505955e-05</v>
+        <v>0.004811151239957862</v>
       </c>
       <c r="D36">
-        <v>-0.0006292994483626644</v>
+        <v>0.001997154936435194</v>
       </c>
       <c r="E36">
-        <v>-0.02269708821314088</v>
+        <v>0.007773097141489125</v>
       </c>
       <c r="F36">
-        <v>0.03743311663025326</v>
+        <v>0.007012108382005348</v>
       </c>
       <c r="G36">
-        <v>0.03914082712487528</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01714810403473949</v>
+      </c>
+      <c r="H36">
+        <v>0.01240945915094147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0003503902931116592</v>
+        <v>-0.02861152861366132</v>
       </c>
       <c r="C38">
-        <v>0.008891178653353786</v>
+        <v>-0.01775569995351218</v>
       </c>
       <c r="D38">
-        <v>-0.01855668723525611</v>
+        <v>0.01032881300227565</v>
       </c>
       <c r="E38">
-        <v>0.02958230330615886</v>
+        <v>0.0001944794087945648</v>
       </c>
       <c r="F38">
-        <v>0.03609938343540739</v>
+        <v>0.01486768892443062</v>
       </c>
       <c r="G38">
-        <v>0.01399859192590334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02161441149809628</v>
+      </c>
+      <c r="H38">
+        <v>0.04202676623916677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03601331953780715</v>
+        <v>-0.02490709448872306</v>
       </c>
       <c r="C39">
-        <v>-0.04763463943240197</v>
+        <v>-0.008432431720285426</v>
       </c>
       <c r="D39">
-        <v>-0.01262758515047007</v>
+        <v>0.08620892384379718</v>
       </c>
       <c r="E39">
-        <v>-0.02907208255976064</v>
+        <v>-0.003068204340758221</v>
       </c>
       <c r="F39">
-        <v>0.07016189771483333</v>
+        <v>0.02650660015479634</v>
       </c>
       <c r="G39">
-        <v>0.02813375375218471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03828410273455483</v>
+      </c>
+      <c r="H39">
+        <v>0.07228192147192254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03356771762929762</v>
+        <v>-0.03280379541042357</v>
       </c>
       <c r="C40">
-        <v>-0.07250636511761498</v>
+        <v>-0.002330093652033446</v>
       </c>
       <c r="D40">
-        <v>0.002794907020182833</v>
+        <v>0.02698159365580656</v>
       </c>
       <c r="E40">
-        <v>0.0192284049598871</v>
+        <v>-0.02208191228451369</v>
       </c>
       <c r="F40">
-        <v>0.07850274812506287</v>
+        <v>0.03754162201099766</v>
       </c>
       <c r="G40">
-        <v>0.05639448897512086</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02072026182908551</v>
+      </c>
+      <c r="H40">
+        <v>0.06709877753349458</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001975198011075699</v>
+        <v>-0.01059880264462239</v>
       </c>
       <c r="C41">
-        <v>0.003486892799510683</v>
+        <v>0.002230843373541262</v>
       </c>
       <c r="D41">
-        <v>-0.008189319197381348</v>
+        <v>-0.01581935166345664</v>
       </c>
       <c r="E41">
-        <v>-0.004522452273082571</v>
+        <v>-0.001383822964685192</v>
       </c>
       <c r="F41">
-        <v>0.01074377272532423</v>
+        <v>-0.001798903930531703</v>
       </c>
       <c r="G41">
-        <v>0.04906829457317344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00346690003846588</v>
+      </c>
+      <c r="H41">
+        <v>-0.007061525573798601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3882731293366485</v>
+        <v>-0.1964211401074312</v>
       </c>
       <c r="C42">
-        <v>0.3158289009499182</v>
+        <v>0.05935661051359899</v>
       </c>
       <c r="D42">
-        <v>-0.7335411213042942</v>
+        <v>0.2529522708644758</v>
       </c>
       <c r="E42">
-        <v>0.235126427075639</v>
+        <v>-0.2051159720385999</v>
       </c>
       <c r="F42">
-        <v>-0.3104767569734926</v>
+        <v>-0.9101262057984806</v>
       </c>
       <c r="G42">
-        <v>0.1388846469219249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.074064595719259</v>
+      </c>
+      <c r="H42">
+        <v>0.0005380557590126926</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0003632255978600716</v>
+        <v>-0.01325252382102588</v>
       </c>
       <c r="C43">
-        <v>0.005996380225372126</v>
+        <v>0.002546271025374709</v>
       </c>
       <c r="D43">
-        <v>-0.01380891205577759</v>
+        <v>-0.01611439140952283</v>
       </c>
       <c r="E43">
-        <v>-0.00346566901170904</v>
+        <v>-0.004484385148810709</v>
       </c>
       <c r="F43">
-        <v>0.02752347445230664</v>
+        <v>-0.004961278548980445</v>
       </c>
       <c r="G43">
-        <v>0.04766647105355959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004875260578880425</v>
+      </c>
+      <c r="H43">
+        <v>0.006132950009547949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01530768009347618</v>
+        <v>-0.02103398516809703</v>
       </c>
       <c r="C44">
-        <v>0.006309242540615738</v>
+        <v>-0.005297904082669631</v>
       </c>
       <c r="D44">
-        <v>-0.01594195690545648</v>
+        <v>0.03047465004891725</v>
       </c>
       <c r="E44">
-        <v>0.004051545324747502</v>
+        <v>0.00689029914109958</v>
       </c>
       <c r="F44">
-        <v>0.1120470438748083</v>
+        <v>0.006686263565721667</v>
       </c>
       <c r="G44">
-        <v>0.08812110273736634</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04154825438239022</v>
+      </c>
+      <c r="H44">
+        <v>0.06489861715350279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0191241546268577</v>
+        <v>-0.01763380499020592</v>
       </c>
       <c r="C46">
-        <v>-0.0181374561367272</v>
+        <v>0.00419469681579183</v>
       </c>
       <c r="D46">
-        <v>-0.02087791692021305</v>
+        <v>0.01034205224753351</v>
       </c>
       <c r="E46">
-        <v>-0.03043394030136214</v>
+        <v>0.001352064596935636</v>
       </c>
       <c r="F46">
-        <v>0.07217959619122068</v>
+        <v>0.01632580701819117</v>
       </c>
       <c r="G46">
-        <v>0.06205977125644978</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0429701068439678</v>
+      </c>
+      <c r="H46">
+        <v>0.004716142020805914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09480803552204493</v>
+        <v>-0.07721190864797567</v>
       </c>
       <c r="C47">
-        <v>-0.0339158339303694</v>
+        <v>-0.03008701246410359</v>
       </c>
       <c r="D47">
-        <v>0.005070606375000643</v>
+        <v>0.04081119037060122</v>
       </c>
       <c r="E47">
-        <v>-0.02784595504548219</v>
+        <v>-1.9068094024101e-05</v>
       </c>
       <c r="F47">
-        <v>0.02700985487196715</v>
+        <v>0.0165711993629692</v>
       </c>
       <c r="G47">
-        <v>0.08325290656106055</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01506882864828813</v>
+      </c>
+      <c r="H47">
+        <v>-0.02177338464160506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01532241390021635</v>
+        <v>-0.02309992191829786</v>
       </c>
       <c r="C48">
-        <v>-0.00653490787908273</v>
+        <v>-0.006354959280422214</v>
       </c>
       <c r="D48">
-        <v>-0.01608039900567767</v>
+        <v>0.00769200441640184</v>
       </c>
       <c r="E48">
-        <v>-0.01770616927081331</v>
+        <v>0.001349973724999461</v>
       </c>
       <c r="F48">
-        <v>0.04844685382207735</v>
+        <v>0.01044561733612689</v>
       </c>
       <c r="G48">
-        <v>0.02724541153102298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02403205791962361</v>
+      </c>
+      <c r="H48">
+        <v>0.01838151688856169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0839955624784621</v>
+        <v>-0.07291211602230245</v>
       </c>
       <c r="C50">
-        <v>-0.03238141865047679</v>
+        <v>-0.02647601480309252</v>
       </c>
       <c r="D50">
-        <v>-0.02213345672957043</v>
+        <v>0.0399136496053189</v>
       </c>
       <c r="E50">
-        <v>-0.03478060533330491</v>
+        <v>0.01395691527247763</v>
       </c>
       <c r="F50">
-        <v>0.0517010241401079</v>
+        <v>0.01178922885646268</v>
       </c>
       <c r="G50">
-        <v>0.0368414972572637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.004257221133950861</v>
+      </c>
+      <c r="H50">
+        <v>-0.004014414010961055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01658351483252821</v>
+        <v>-0.02097850235953737</v>
       </c>
       <c r="C51">
-        <v>0.01557944909061467</v>
+        <v>0.001261471707599112</v>
       </c>
       <c r="D51">
-        <v>-0.00835723651036601</v>
+        <v>6.755487936278141e-05</v>
       </c>
       <c r="E51">
-        <v>0.02131657079865599</v>
+        <v>0.008101434441094141</v>
       </c>
       <c r="F51">
-        <v>0.1114155823024918</v>
+        <v>0.0006495719964192504</v>
       </c>
       <c r="G51">
-        <v>0.05378623682917634</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05507632165899658</v>
+      </c>
+      <c r="H51">
+        <v>0.0576529428046858</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0965238566762229</v>
+        <v>-0.09543998401074548</v>
       </c>
       <c r="C53">
-        <v>-0.05107101122725372</v>
+        <v>-0.03837603039304404</v>
       </c>
       <c r="D53">
-        <v>-0.0004875860974767701</v>
+        <v>0.07443602971756877</v>
       </c>
       <c r="E53">
-        <v>-0.04932145620511737</v>
+        <v>0.002238245147141158</v>
       </c>
       <c r="F53">
-        <v>-0.03764767945721293</v>
+        <v>0.03289131271033089</v>
       </c>
       <c r="G53">
-        <v>0.01521594012739788</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05693659056526387</v>
+      </c>
+      <c r="H53">
+        <v>-0.0400083916900895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01933663360939106</v>
+        <v>-0.02623241956731442</v>
       </c>
       <c r="C54">
-        <v>-0.003589413279051319</v>
+        <v>-0.009445143422620029</v>
       </c>
       <c r="D54">
-        <v>0.01386504275667366</v>
+        <v>-0.01204370993002979</v>
       </c>
       <c r="E54">
-        <v>-0.0322530504460212</v>
+        <v>0.008995891074522722</v>
       </c>
       <c r="F54">
-        <v>0.04856176970568658</v>
+        <v>0.01239581803209165</v>
       </c>
       <c r="G54">
-        <v>0.06702923229363154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03843501733181964</v>
+      </c>
+      <c r="H54">
+        <v>-0.00323703463197834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1036585644274505</v>
+        <v>-0.08001250645465646</v>
       </c>
       <c r="C55">
-        <v>-0.02226426480138139</v>
+        <v>-0.03403923067632832</v>
       </c>
       <c r="D55">
-        <v>0.01388315946851535</v>
+        <v>0.07029380439676465</v>
       </c>
       <c r="E55">
-        <v>-0.07462371801373222</v>
+        <v>0.01004821511536321</v>
       </c>
       <c r="F55">
-        <v>-0.02598421492657299</v>
+        <v>0.0263168867786778</v>
       </c>
       <c r="G55">
-        <v>0.06040494039562137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03262671684771037</v>
+      </c>
+      <c r="H55">
+        <v>-0.05306495485407964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1378339411604175</v>
+        <v>-0.1297155021845613</v>
       </c>
       <c r="C56">
-        <v>-0.07429384630191213</v>
+        <v>-0.0568604268680165</v>
       </c>
       <c r="D56">
-        <v>0.04108757052292026</v>
+        <v>0.08822672538561693</v>
       </c>
       <c r="E56">
-        <v>-0.06694837196650727</v>
+        <v>0.000342811931545158</v>
       </c>
       <c r="F56">
-        <v>-0.0694241879035323</v>
+        <v>0.05272693644598764</v>
       </c>
       <c r="G56">
-        <v>-0.02893431582455413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09414462126155229</v>
+      </c>
+      <c r="H56">
+        <v>-0.05986170156314761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04655740960344414</v>
+        <v>-0.04358229420557947</v>
       </c>
       <c r="C57">
-        <v>-0.007094282028790729</v>
+        <v>0.007319318451624635</v>
       </c>
       <c r="D57">
-        <v>-0.01648762170438705</v>
+        <v>0.04203335039410342</v>
       </c>
       <c r="E57">
-        <v>0.01905446410438301</v>
+        <v>-0.006833096027472488</v>
       </c>
       <c r="F57">
-        <v>0.06355233833438001</v>
+        <v>0.02467360638123943</v>
       </c>
       <c r="G57">
-        <v>0.06160620663855006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06113842597774285</v>
+      </c>
+      <c r="H57">
+        <v>0.04262819063824497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2299104153210441</v>
+        <v>-0.1659777614680763</v>
       </c>
       <c r="C58">
-        <v>-0.08689383581517519</v>
+        <v>-0.0553641160195349</v>
       </c>
       <c r="D58">
-        <v>-0.07741018105037473</v>
+        <v>0.1550001556370208</v>
       </c>
       <c r="E58">
-        <v>-0.08552288367720645</v>
+        <v>-0.1675663761662817</v>
       </c>
       <c r="F58">
-        <v>0.4048948340276995</v>
+        <v>0.0366478533186439</v>
       </c>
       <c r="G58">
-        <v>0.07611822185254941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.800745585456982</v>
+      </c>
+      <c r="H58">
+        <v>-0.4297489608469653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05070816950226689</v>
+        <v>-0.1530689868287952</v>
       </c>
       <c r="C59">
-        <v>0.0479099787405009</v>
+        <v>-0.01246168450369796</v>
       </c>
       <c r="D59">
-        <v>0.1037735026287926</v>
+        <v>-0.2301112743485328</v>
       </c>
       <c r="E59">
-        <v>0.1528964983315463</v>
+        <v>-0.01551238666431489</v>
       </c>
       <c r="F59">
-        <v>0.05391895026494611</v>
+        <v>-0.005475658000212389</v>
       </c>
       <c r="G59">
-        <v>-0.01743881077290095</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0270666448882059</v>
+      </c>
+      <c r="H59">
+        <v>0.03275472979827215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1585499092286861</v>
+        <v>-0.1828277056536055</v>
       </c>
       <c r="C60">
-        <v>-0.0780854862983425</v>
+        <v>-0.03287395113478381</v>
       </c>
       <c r="D60">
-        <v>-0.04185226449438937</v>
+        <v>0.024430734208461</v>
       </c>
       <c r="E60">
-        <v>0.116579382689251</v>
+        <v>-0.04816307690740185</v>
       </c>
       <c r="F60">
-        <v>0.1663014759359125</v>
+        <v>0.05519753438520046</v>
       </c>
       <c r="G60">
-        <v>-0.3083043091500537</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04340845050063966</v>
+      </c>
+      <c r="H60">
+        <v>0.3682698697118958</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02144984257979632</v>
+        <v>-0.02714254084065249</v>
       </c>
       <c r="C61">
-        <v>-0.01763202301248216</v>
+        <v>-0.01104414172824798</v>
       </c>
       <c r="D61">
-        <v>-0.0130229094327758</v>
+        <v>0.05179288861692024</v>
       </c>
       <c r="E61">
-        <v>-0.01520274715517343</v>
+        <v>0.004604855388664176</v>
       </c>
       <c r="F61">
-        <v>0.03910615532141588</v>
+        <v>0.02504435859154107</v>
       </c>
       <c r="G61">
-        <v>0.01931824978543307</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02157392990376501</v>
+      </c>
+      <c r="H61">
+        <v>0.05643111673681883</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01686630500028411</v>
+        <v>-0.01420477326142322</v>
       </c>
       <c r="C63">
-        <v>-0.006140827977582235</v>
+        <v>0.001179566316378626</v>
       </c>
       <c r="D63">
-        <v>-0.01927912091133261</v>
+        <v>0.01983402124145925</v>
       </c>
       <c r="E63">
-        <v>-0.03167561687710198</v>
+        <v>0.005529846359861802</v>
       </c>
       <c r="F63">
-        <v>0.0213297006806441</v>
+        <v>0.01420221149864807</v>
       </c>
       <c r="G63">
-        <v>0.06153867021784036</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01444776288819981</v>
+      </c>
+      <c r="H63">
+        <v>0.008648940504179459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03399493625655613</v>
+        <v>-0.04262387447349781</v>
       </c>
       <c r="C64">
-        <v>-0.003271205085277517</v>
+        <v>-0.01117073822870055</v>
       </c>
       <c r="D64">
-        <v>0.007239183326080392</v>
+        <v>0.0345988570299161</v>
       </c>
       <c r="E64">
-        <v>-0.05291189301199629</v>
+        <v>0.01136418338248772</v>
       </c>
       <c r="F64">
-        <v>0.03629529459135859</v>
+        <v>0.007210340108295868</v>
       </c>
       <c r="G64">
-        <v>0.05752405155684141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0001961222691623126</v>
+      </c>
+      <c r="H64">
+        <v>0.03767680085817484</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02558086118838536</v>
+        <v>-0.03770558940248007</v>
       </c>
       <c r="C65">
-        <v>-0.01112893592747225</v>
+        <v>-0.00121278778026808</v>
       </c>
       <c r="D65">
-        <v>-0.006842775217232763</v>
+        <v>0.06551508025308367</v>
       </c>
       <c r="E65">
-        <v>-0.02207653578873741</v>
+        <v>0.008250618873341968</v>
       </c>
       <c r="F65">
-        <v>0.02170649432685847</v>
+        <v>0.03629225105708295</v>
       </c>
       <c r="G65">
-        <v>-0.01190060362520539</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.0001819780364597282</v>
+      </c>
+      <c r="H65">
+        <v>0.07050333744819894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03275769067359211</v>
+        <v>-0.0331791011584668</v>
       </c>
       <c r="C66">
-        <v>-0.05611151350070082</v>
+        <v>-0.01493284267549591</v>
       </c>
       <c r="D66">
-        <v>-0.01669121888352048</v>
+        <v>0.105022729693783</v>
       </c>
       <c r="E66">
-        <v>-0.03005511730234426</v>
+        <v>-0.004957149068101959</v>
       </c>
       <c r="F66">
-        <v>0.05630659961008464</v>
+        <v>0.04536148431837383</v>
       </c>
       <c r="G66">
-        <v>0.01807119657613475</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0313795288116759</v>
+      </c>
+      <c r="H66">
+        <v>0.07777517996816637</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01099685961743053</v>
+        <v>-0.0481093408148066</v>
       </c>
       <c r="C67">
-        <v>0.000263668761226597</v>
+        <v>-0.02017835620721439</v>
       </c>
       <c r="D67">
-        <v>-0.01398151156105591</v>
+        <v>0.0101681329298735</v>
       </c>
       <c r="E67">
-        <v>0.03694029312693007</v>
+        <v>-0.004118367008361969</v>
       </c>
       <c r="F67">
-        <v>0.0179906096568993</v>
+        <v>0.02322867912769199</v>
       </c>
       <c r="G67">
-        <v>0.002947032624803932</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.007224310684880791</v>
+      </c>
+      <c r="H67">
+        <v>0.04234125211609056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06886876358402551</v>
+        <v>-0.1446868606267052</v>
       </c>
       <c r="C68">
-        <v>0.07742376213207054</v>
+        <v>0.01114978944828007</v>
       </c>
       <c r="D68">
-        <v>0.1260119794264695</v>
+        <v>-0.2405838565878334</v>
       </c>
       <c r="E68">
-        <v>0.1446230181956121</v>
+        <v>-0.009768115261142874</v>
       </c>
       <c r="F68">
-        <v>0.04753738243891412</v>
+        <v>-0.0387220313010281</v>
       </c>
       <c r="G68">
-        <v>-0.06045266467816576</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03524372173657331</v>
+      </c>
+      <c r="H68">
+        <v>-0.03838725692187186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06880191256263295</v>
+        <v>-0.06225832154417706</v>
       </c>
       <c r="C69">
-        <v>-0.04210304214688521</v>
+        <v>-0.02966896686765154</v>
       </c>
       <c r="D69">
-        <v>0.008913808172486343</v>
+        <v>0.03961975492815618</v>
       </c>
       <c r="E69">
-        <v>-0.0126645026377597</v>
+        <v>-0.0007916135252654587</v>
       </c>
       <c r="F69">
-        <v>0.01826364491717617</v>
+        <v>0.02680172819701744</v>
       </c>
       <c r="G69">
-        <v>0.08121914375032437</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01971034011122262</v>
+      </c>
+      <c r="H69">
+        <v>0.005234719293509564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07227916841327338</v>
+        <v>-0.1390417316159297</v>
       </c>
       <c r="C71">
-        <v>0.08471788850806412</v>
+        <v>-0.0004416948187371597</v>
       </c>
       <c r="D71">
-        <v>0.1056940924862339</v>
+        <v>-0.2086846668503622</v>
       </c>
       <c r="E71">
-        <v>0.2069802188820632</v>
+        <v>-0.01644730803654798</v>
       </c>
       <c r="F71">
-        <v>0.03748738113426295</v>
+        <v>-0.04432009672828637</v>
       </c>
       <c r="G71">
-        <v>0.007307730551246308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03567324932710717</v>
+      </c>
+      <c r="H71">
+        <v>-0.01918140329844222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1133336897981114</v>
+        <v>-0.083827872078982</v>
       </c>
       <c r="C72">
-        <v>-0.07291691294699398</v>
+        <v>-0.04093949822816627</v>
       </c>
       <c r="D72">
-        <v>0.03507336569505554</v>
+        <v>0.07453253259171885</v>
       </c>
       <c r="E72">
-        <v>-0.01333213649518403</v>
+        <v>-0.01377612300279806</v>
       </c>
       <c r="F72">
-        <v>0.1301265830735173</v>
+        <v>0.07511854422648848</v>
       </c>
       <c r="G72">
-        <v>-0.08602164497997185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03219076551271498</v>
+      </c>
+      <c r="H72">
+        <v>0.1401790149514481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2373238852569209</v>
+        <v>-0.2506471633038043</v>
       </c>
       <c r="C73">
-        <v>-0.09043737650327423</v>
+        <v>-0.04676812160190966</v>
       </c>
       <c r="D73">
-        <v>-0.04592489591277393</v>
+        <v>0.08398845101506289</v>
       </c>
       <c r="E73">
-        <v>0.2118867728853904</v>
+        <v>-0.08541191242545919</v>
       </c>
       <c r="F73">
-        <v>0.2242939407941439</v>
+        <v>0.06140790789317351</v>
       </c>
       <c r="G73">
-        <v>-0.4285148347537825</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06166526926358753</v>
+      </c>
+      <c r="H73">
+        <v>0.4854590066617148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1382444509692635</v>
+        <v>-0.1252358046854346</v>
       </c>
       <c r="C74">
-        <v>-0.03023187229313484</v>
+        <v>-0.0556580036034513</v>
       </c>
       <c r="D74">
-        <v>0.02249754747236198</v>
+        <v>0.09743632087313985</v>
       </c>
       <c r="E74">
-        <v>-0.03960290938495459</v>
+        <v>0.00260324317639589</v>
       </c>
       <c r="F74">
-        <v>-0.06527003075757011</v>
+        <v>0.03867539509917937</v>
       </c>
       <c r="G74">
-        <v>-0.01739214168193958</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07825751896468823</v>
+      </c>
+      <c r="H74">
+        <v>-0.03156768600816276</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2264447346064747</v>
+        <v>-0.2333789569433939</v>
       </c>
       <c r="C75">
-        <v>-0.1138849476524452</v>
+        <v>-0.1032031067437514</v>
       </c>
       <c r="D75">
-        <v>0.08100426721267277</v>
+        <v>0.1458857502599155</v>
       </c>
       <c r="E75">
-        <v>-0.1061311323967783</v>
+        <v>-0.01519676119411011</v>
       </c>
       <c r="F75">
-        <v>-0.09569555471435938</v>
+        <v>0.09990791791966903</v>
       </c>
       <c r="G75">
-        <v>-0.002781878205003855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1603977459526266</v>
+      </c>
+      <c r="H75">
+        <v>-0.1378211705865516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.275534619668554</v>
+        <v>-0.2066377083957205</v>
       </c>
       <c r="C76">
-        <v>-0.1039823728492979</v>
+        <v>-0.09621038584678671</v>
       </c>
       <c r="D76">
-        <v>0.1413383927761436</v>
+        <v>0.1382984485772266</v>
       </c>
       <c r="E76">
-        <v>-0.1441047164195563</v>
+        <v>0.03199996475581238</v>
       </c>
       <c r="F76">
-        <v>-0.1427360671896739</v>
+        <v>0.09531874930817023</v>
       </c>
       <c r="G76">
-        <v>-0.02052823807541671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1575953568042295</v>
+      </c>
+      <c r="H76">
+        <v>-0.1349210420870672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1267555871318335</v>
+        <v>-0.07748175196365292</v>
       </c>
       <c r="C77">
-        <v>-0.03193925880196439</v>
+        <v>-0.01471227551253896</v>
       </c>
       <c r="D77">
-        <v>-0.0985802908642899</v>
+        <v>0.06868393553232119</v>
       </c>
       <c r="E77">
-        <v>-0.045775267772981</v>
+        <v>-0.008423936883186765</v>
       </c>
       <c r="F77">
-        <v>0.172825490199965</v>
+        <v>-0.003205999834037025</v>
       </c>
       <c r="G77">
-        <v>0.1944035286384412</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08820116006538987</v>
+      </c>
+      <c r="H77">
+        <v>0.00877879981712266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07332136979922797</v>
+        <v>-0.04712704737022336</v>
       </c>
       <c r="C78">
-        <v>-0.04012382090017069</v>
+        <v>-0.01511300645571636</v>
       </c>
       <c r="D78">
-        <v>-0.040510901616002</v>
+        <v>0.05898904910808358</v>
       </c>
       <c r="E78">
-        <v>-0.06965466099411187</v>
+        <v>0.00421560895672116</v>
       </c>
       <c r="F78">
-        <v>0.1119838317510913</v>
+        <v>0.03115310910182334</v>
       </c>
       <c r="G78">
-        <v>0.03158343499243709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06088722367111238</v>
+      </c>
+      <c r="H78">
+        <v>0.0719038560103646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1663674374522728</v>
+        <v>-0.1446501904401252</v>
       </c>
       <c r="C80">
-        <v>0.7939802144671742</v>
+        <v>-0.03676652729024459</v>
       </c>
       <c r="D80">
-        <v>0.1745806211442766</v>
+        <v>0.06053213109941718</v>
       </c>
       <c r="E80">
-        <v>-0.4854784614087744</v>
+        <v>0.9470900599069259</v>
       </c>
       <c r="F80">
-        <v>0.1295174667186434</v>
+        <v>-0.1876746645296324</v>
       </c>
       <c r="G80">
-        <v>-0.1519327809840147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1353237788118467</v>
+      </c>
+      <c r="H80">
+        <v>0.0009775769557454428</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1709106249442369</v>
+        <v>-0.1548277262683519</v>
       </c>
       <c r="C81">
-        <v>-0.08118012942796993</v>
+        <v>-0.0671134390082813</v>
       </c>
       <c r="D81">
-        <v>0.08964993057877715</v>
+        <v>0.09064339719548514</v>
       </c>
       <c r="E81">
-        <v>-0.0811931226940812</v>
+        <v>0.006988606714614292</v>
       </c>
       <c r="F81">
-        <v>-0.117004765047861</v>
+        <v>0.06461977833021258</v>
       </c>
       <c r="G81">
-        <v>-0.03372652477067761</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1079175080119141</v>
+      </c>
+      <c r="H81">
+        <v>-0.08777013736113128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0397281438850267</v>
+        <v>-0.03625024155385945</v>
       </c>
       <c r="C83">
-        <v>-0.0256973630258085</v>
+        <v>-0.007581844141078356</v>
       </c>
       <c r="D83">
-        <v>-0.0284214286364859</v>
+        <v>0.02216982490367826</v>
       </c>
       <c r="E83">
-        <v>0.0005738816558847526</v>
+        <v>-0.007445019039146385</v>
       </c>
       <c r="F83">
-        <v>0.05629909518279952</v>
+        <v>0.01601990955609956</v>
       </c>
       <c r="G83">
-        <v>0.04296923668515353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04608294057550254</v>
+      </c>
+      <c r="H83">
+        <v>0.03523763778434622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2522481384552925</v>
+        <v>-0.2240896694622687</v>
       </c>
       <c r="C85">
-        <v>-0.1031231736590065</v>
+        <v>-0.08814233811045055</v>
       </c>
       <c r="D85">
-        <v>0.09289803914739519</v>
+        <v>0.1507657378728658</v>
       </c>
       <c r="E85">
-        <v>-0.1099799118360283</v>
+        <v>-0.007881084180718922</v>
       </c>
       <c r="F85">
-        <v>-0.09352084478622931</v>
+        <v>0.08432175470675703</v>
       </c>
       <c r="G85">
-        <v>0.02070712566547077</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1716001789040718</v>
+      </c>
+      <c r="H85">
+        <v>-0.09760526814280104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005872959321932691</v>
+        <v>-0.02769933400656944</v>
       </c>
       <c r="C86">
-        <v>-0.004567215896135364</v>
+        <v>-0.003753946049884846</v>
       </c>
       <c r="D86">
-        <v>-0.03266455452416964</v>
+        <v>0.03021398149300709</v>
       </c>
       <c r="E86">
-        <v>-0.03607553654352936</v>
+        <v>-0.003083425549322458</v>
       </c>
       <c r="F86">
-        <v>0.07299665052805258</v>
+        <v>0.002589152085947951</v>
       </c>
       <c r="G86">
-        <v>0.02604387775456441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0785282748218971</v>
+      </c>
+      <c r="H86">
+        <v>0.09233290725829248</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03886153438091778</v>
+        <v>-0.03065080628778744</v>
       </c>
       <c r="C87">
-        <v>0.005942559444990896</v>
+        <v>-0.005072988081927155</v>
       </c>
       <c r="D87">
-        <v>-0.01840931696778076</v>
+        <v>0.04416441049779213</v>
       </c>
       <c r="E87">
-        <v>-0.01096823786002131</v>
+        <v>0.008764689921263375</v>
       </c>
       <c r="F87">
-        <v>0.1176323662243089</v>
+        <v>0.01675125247082826</v>
       </c>
       <c r="G87">
-        <v>0.04767326552895668</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08094507518536991</v>
+      </c>
+      <c r="H87">
+        <v>0.07557955770762713</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.006763050679590641</v>
+        <v>-0.03843513499041101</v>
       </c>
       <c r="C88">
-        <v>0.00839427574953348</v>
+        <v>0.01069619463406742</v>
       </c>
       <c r="D88">
-        <v>0.0103075720210886</v>
+        <v>0.01514552598949067</v>
       </c>
       <c r="E88">
-        <v>-0.01466295005136608</v>
+        <v>0.01039520241226054</v>
       </c>
       <c r="F88">
-        <v>-0.0006490643241961999</v>
+        <v>0.01430499380337359</v>
       </c>
       <c r="G88">
-        <v>0.0519121821263418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.004435137508220436</v>
+      </c>
+      <c r="H88">
+        <v>0.02194575944367665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08807999859165754</v>
+        <v>-0.2367780237587085</v>
       </c>
       <c r="C89">
-        <v>0.1056262693481419</v>
+        <v>0.002182118358070416</v>
       </c>
       <c r="D89">
-        <v>0.1581670449631597</v>
+        <v>-0.3653608220354366</v>
       </c>
       <c r="E89">
-        <v>0.2623536811223993</v>
+        <v>-0.0246463537406977</v>
       </c>
       <c r="F89">
-        <v>0.06717893668833695</v>
+        <v>-0.02940491153914696</v>
       </c>
       <c r="G89">
-        <v>0.0243405403711712</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.00260195958080302</v>
+      </c>
+      <c r="H89">
+        <v>0.01338133529961583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08587697906176454</v>
+        <v>-0.1908848624091092</v>
       </c>
       <c r="C90">
-        <v>0.1574166864998178</v>
+        <v>0.003401089319835808</v>
       </c>
       <c r="D90">
-        <v>0.1981877820308858</v>
+        <v>-0.3243038138691794</v>
       </c>
       <c r="E90">
-        <v>0.2539687875863969</v>
+        <v>-0.01660226796993888</v>
       </c>
       <c r="F90">
-        <v>0.02469229445889268</v>
+        <v>-0.05665078303479586</v>
       </c>
       <c r="G90">
-        <v>0.02002177438826171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.009009255555384151</v>
+      </c>
+      <c r="H90">
+        <v>-0.04064958414929351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3039908675263163</v>
+        <v>-0.2364517196363453</v>
       </c>
       <c r="C91">
-        <v>-0.1301875311109774</v>
+        <v>-0.1010401379440803</v>
       </c>
       <c r="D91">
-        <v>0.09277614369078847</v>
+        <v>0.1295263798512832</v>
       </c>
       <c r="E91">
-        <v>-0.1114853894352514</v>
+        <v>-0.01483903601848881</v>
       </c>
       <c r="F91">
-        <v>-0.2259576382498429</v>
+        <v>0.08334936743053541</v>
       </c>
       <c r="G91">
-        <v>-0.03579811929105756</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1905593263221479</v>
+      </c>
+      <c r="H91">
+        <v>-0.1756146360964667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1699805881204012</v>
+        <v>-0.2421201106360444</v>
       </c>
       <c r="C92">
-        <v>0.09663061355830693</v>
+        <v>-0.0637947425534654</v>
       </c>
       <c r="D92">
-        <v>0.3544950943585318</v>
+        <v>-0.2620962931287693</v>
       </c>
       <c r="E92">
-        <v>0.2600203160395159</v>
+        <v>-0.00446467429122605</v>
       </c>
       <c r="F92">
-        <v>-0.108811174141278</v>
+        <v>0.006333389396641988</v>
       </c>
       <c r="G92">
-        <v>0.5332537515712573</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.003883773150472453</v>
+      </c>
+      <c r="H92">
+        <v>-0.1370048297971984</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09163801839028587</v>
+        <v>-0.2142671125909439</v>
       </c>
       <c r="C93">
-        <v>0.1596652834422139</v>
+        <v>-0.006272431257859801</v>
       </c>
       <c r="D93">
-        <v>0.2307936481202039</v>
+        <v>-0.3406480969738419</v>
       </c>
       <c r="E93">
-        <v>0.3690049797702389</v>
+        <v>-0.03736519808801775</v>
       </c>
       <c r="F93">
-        <v>-0.01853338102895001</v>
+        <v>-0.05968790803306216</v>
       </c>
       <c r="G93">
-        <v>-0.06362562435453295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.0002436063844789593</v>
+      </c>
+      <c r="H93">
+        <v>0.01285025173923164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3033197138443052</v>
+        <v>-0.2597242149971214</v>
       </c>
       <c r="C94">
-        <v>-0.1838994455400401</v>
+        <v>-0.09024585646483163</v>
       </c>
       <c r="D94">
-        <v>0.1786771551193369</v>
+        <v>0.12403961056763</v>
       </c>
       <c r="E94">
-        <v>-0.1230862250267716</v>
+        <v>-0.02973325954987508</v>
       </c>
       <c r="F94">
-        <v>-0.1812923871899531</v>
+        <v>0.1311871806426634</v>
       </c>
       <c r="G94">
-        <v>-0.04696578216569493</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1860104781349583</v>
+      </c>
+      <c r="H94">
+        <v>-0.2155020905662358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05842141026246921</v>
+        <v>-0.06146337706190081</v>
       </c>
       <c r="C95">
-        <v>-0.070362271623547</v>
+        <v>-0.03564085942142122</v>
       </c>
       <c r="D95">
-        <v>-0.06844549553530009</v>
+        <v>0.0856951663072355</v>
       </c>
       <c r="E95">
-        <v>-0.06104688150795309</v>
+        <v>-0.0787598825309192</v>
       </c>
       <c r="F95">
-        <v>0.01185994083084407</v>
+        <v>0.00826636684026971</v>
       </c>
       <c r="G95">
-        <v>0.1903118388400482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05042311109019411</v>
+      </c>
+      <c r="H95">
+        <v>0.04255976612423502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1782865742874134</v>
+        <v>-0.188783265585688</v>
       </c>
       <c r="C98">
-        <v>-0.02648262932985631</v>
+        <v>-0.06501974116874928</v>
       </c>
       <c r="D98">
-        <v>-0.042850068672847</v>
+        <v>0.03891893183385849</v>
       </c>
       <c r="E98">
-        <v>0.1402601014122818</v>
+        <v>-0.05051067390207495</v>
       </c>
       <c r="F98">
-        <v>0.1219001131190054</v>
+        <v>0.02308297728586697</v>
       </c>
       <c r="G98">
-        <v>-0.3454612333842491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0807621997457252</v>
+      </c>
+      <c r="H98">
+        <v>0.3413337402225062</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005800112821663182</v>
+        <v>-0.01610228592080027</v>
       </c>
       <c r="C101">
-        <v>-0.01417001060628427</v>
+        <v>0.0001289866535842699</v>
       </c>
       <c r="D101">
-        <v>-0.01175934802784767</v>
+        <v>0.01106053600028543</v>
       </c>
       <c r="E101">
-        <v>-0.07069145008257917</v>
+        <v>0.00805334088315143</v>
       </c>
       <c r="F101">
-        <v>0.1780930319342257</v>
+        <v>0.02826132650607281</v>
       </c>
       <c r="G101">
-        <v>0.1339745102938938</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1016809055993121</v>
+      </c>
+      <c r="H101">
+        <v>-0.03007046359647656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1142589454011103</v>
+        <v>-0.1083138571908644</v>
       </c>
       <c r="C102">
-        <v>-0.05674994115143354</v>
+        <v>-0.03520903149737173</v>
       </c>
       <c r="D102">
-        <v>0.028255166306853</v>
+        <v>0.07336707299857885</v>
       </c>
       <c r="E102">
-        <v>-0.07834041801194196</v>
+        <v>-0.002090163203714484</v>
       </c>
       <c r="F102">
-        <v>-0.09406022671711978</v>
+        <v>0.04473101522057973</v>
       </c>
       <c r="G102">
-        <v>-0.002507109571038039</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09655529947927148</v>
+      </c>
+      <c r="H102">
+        <v>-0.06852414750173209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0225093042483342</v>
+        <v>-0.01757560250984413</v>
       </c>
       <c r="C103">
-        <v>-0.02182661117576696</v>
+        <v>-0.006857548726674866</v>
       </c>
       <c r="D103">
-        <v>-0.0007700989110844324</v>
+        <v>0.01464168694768135</v>
       </c>
       <c r="E103">
-        <v>-0.02556954877484825</v>
+        <v>0.009746923589285948</v>
       </c>
       <c r="F103">
-        <v>0.004945653396906839</v>
+        <v>0.009581967663565914</v>
       </c>
       <c r="G103">
-        <v>0.01548452771917927</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00121765071211285</v>
+      </c>
+      <c r="H103">
+        <v>-0.01418153049525801</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2267287621010416</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9535909890151656</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.09678147336407009</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02475408618800623</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.131078143270478</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03521123547567739</v>
+      </c>
+      <c r="H104">
+        <v>-0.0496770736559711</v>
       </c>
     </row>
   </sheetData>
